--- a/dados/2024-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
+++ b/dados/2024-1_GestaoResultado_ResumoInscricoes_TEC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27495" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="2024-1_GestaoResultado_ResumoIn" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="80">
   <si>
     <t>Processo</t>
   </si>
@@ -1105,7 +1105,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1645,8 +1647,8 @@
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="2">
-        <v>-1</v>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -2867,8 +2869,8 @@
       <c r="B68" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="2">
-        <v>-1</v>
+      <c r="C68" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>61</v>
@@ -2919,8 +2921,8 @@
       <c r="B70" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="2">
-        <v>-1</v>
+      <c r="C70" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>61</v>
